--- a/outputs-GTDB-r202/f__CAG-272.xlsx
+++ b/outputs-GTDB-r202/f__CAG-272.xlsx
@@ -808,7 +808,7 @@
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>g__WREN01</t>
+          <t>g__WREN01(reject)</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>g__WREN01</t>
+          <t>g__WREN01(reject)</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>g__UMGS1696</t>
+          <t>g__UMGS1696(reject)</t>
         </is>
       </c>
     </row>
